--- a/用例数据/沪A/上证lof/当天同时申购赎回/Tday/测试结果.xlsx
+++ b/用例数据/沪A/上证lof/当天同时申购赎回/Tday/测试结果.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="unprocessedreckoningresulthis" sheetId="3" r:id="rId2"/>
+    <sheet name="unprocessedreckoningresult" sheetId="2" r:id="rId3"/>
+    <sheet name="stklist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="326">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -978,19 +981,30 @@
     <t>20221125000000</t>
   </si>
   <si>
+    <t>11700000.0000</t>
+  </si>
+  <si>
+    <t>1.1700</t>
+  </si>
+  <si>
+    <t>交收后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>unprocessedreckoningresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETACCOUNTNUM</t>
+  </si>
+  <si>
+    <t>GETACCOUNTDATE</t>
+  </si>
+  <si>
+    <t>DELIVERYFLAG</t>
   </si>
   <si>
     <t>unprocessedreckoningresulthis</t>
-  </si>
-  <si>
-    <t>11700000.0000</t>
-  </si>
-  <si>
-    <t>1.1700</t>
-  </si>
-  <si>
-    <t>交收后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,13 +1347,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK238"/>
+  <dimension ref="A1:EK239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1898,7 @@
     </row>
     <row r="8" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>89</v>
@@ -1917,7 +1934,7 @@
         <v>96</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>98</v>
@@ -1962,7 +1979,7 @@
         <v>103</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>89</v>
@@ -2082,7 +2099,7 @@
         <v>105</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BR8" s="1" t="s">
         <v>98</v>
@@ -3737,7 +3754,7 @@
     <row r="30" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4599,290 +4616,353 @@
     <row r="36" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>88</v>
+      <c r="A38" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>237</v>
+        <v>112</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="AM38" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
+      </c>
+      <c r="AN38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="AQ38" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="AR38" s="1" t="s">
-        <v>89</v>
+        <v>324</v>
       </c>
       <c r="AS38" s="1" t="s">
-        <v>250</v>
+        <v>147</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AV38" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
+      </c>
+      <c r="AW38" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="AX38" s="1" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="AY38" s="1" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="AZ38" s="1" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="BA38" s="1" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="BB38" s="1" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="BD38" s="1" t="s">
-        <v>253</v>
+        <v>294</v>
+      </c>
+      <c r="BE38" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF38" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="BG38" s="1" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="BH38" s="1" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="BI38" s="1" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="BJ38" s="1" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="BK38" s="1" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="BL38" s="1" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="BM38" s="1" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
       <c r="BN38" s="1" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="BO38" s="1" t="s">
-        <v>98</v>
+        <v>169</v>
+      </c>
+      <c r="BP38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BQ38" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BR38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BS38" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="BT38" s="1" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="BU38" s="1" t="s">
-        <v>311</v>
+        <v>175</v>
+      </c>
+      <c r="BV38" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="BW38" s="1" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="BX38" s="1" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="BY38" s="1" t="s">
-        <v>239</v>
+        <v>178</v>
+      </c>
+      <c r="BZ38" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="CA38" s="1" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="CB38" s="1" t="s">
-        <v>89</v>
+        <v>183</v>
+      </c>
+      <c r="CC38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD38" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="CE38" s="1" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="CF38" s="1" t="s">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="CG38" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
+      </c>
+      <c r="CH38" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="CI38" s="1" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="CJ38" s="1" t="s">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="CK38" s="1" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="CL38" s="1" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="CM38" s="1" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="CN38" s="1" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="CO38" s="1" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="CP38" s="1" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="CQ38" s="1" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="CR38" s="1" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="CS38" s="1" t="s">
-        <v>98</v>
+        <v>193</v>
       </c>
       <c r="CT38" s="1" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="CU38" s="1" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="CV38" s="1" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="CW38" s="1" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="CX38" s="1" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="CY38" s="1" t="s">
-        <v>98</v>
+        <v>199</v>
+      </c>
+      <c r="CZ38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DA38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="DB38" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DC38" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="DD38" s="1" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="DE38" s="1" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="DF38" s="1" t="s">
-        <v>89</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>89</v>
@@ -4903,22 +4983,22 @@
         <v>94</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>237</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>240</v>
@@ -4966,19 +5046,19 @@
         <v>98</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>98</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>247</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>89</v>
@@ -4990,13 +5070,13 @@
         <v>90</v>
       </c>
       <c r="AQ39" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AR39" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AS39" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="AV39" s="1" t="s">
         <v>89</v>
@@ -5005,7 +5085,7 @@
         <v>98</v>
       </c>
       <c r="AY39" s="1" t="s">
-        <v>269</v>
+        <v>104</v>
       </c>
       <c r="AZ39" s="1" t="s">
         <v>89</v>
@@ -5014,7 +5094,7 @@
         <v>89</v>
       </c>
       <c r="BB39" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="BC39" s="1" t="s">
         <v>88</v>
@@ -5041,10 +5121,10 @@
         <v>98</v>
       </c>
       <c r="BM39" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="BN39" s="1" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="BO39" s="1" t="s">
         <v>98</v>
@@ -5053,16 +5133,16 @@
         <v>89</v>
       </c>
       <c r="BU39" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BW39" s="1" t="s">
         <v>255</v>
       </c>
       <c r="BX39" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BY39" s="1" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="CA39" s="1" t="s">
         <v>257</v>
@@ -5089,10 +5169,10 @@
         <v>98</v>
       </c>
       <c r="CL39" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="CM39" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="CN39" s="1" t="s">
         <v>105</v>
@@ -5140,7 +5220,275 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY40" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BG40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BJ40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BL40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BN40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BW40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BX40" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BY40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CA40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="CB40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CF40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CI40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CJ40" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CK40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CM40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CN40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DD40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE40" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DF40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="41" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5339,9 +5687,2270 @@
     <row r="236" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="237" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="238" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DD3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:108" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DB3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:105" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CY3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CZ3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/用例数据/沪A/上证lof/当天同时申购赎回/Tday/测试结果.xlsx
+++ b/用例数据/沪A/上证lof/当天同时申购赎回/Tday/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:EK239"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5699,7 +5699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -7421,8 +7421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
